--- a/ORG_CENTER.xlsx
+++ b/ORG_CENTER.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6C2E7F-266C-494B-BEB0-EF434BF051D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267A1A11-EEB2-4287-8E62-E8BDA2CC0F9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="572">
   <si>
     <t>ORG_CEN_PK</t>
   </si>
@@ -1727,6 +1727,15 @@
   </si>
   <si>
     <t>ศสปท.</t>
+  </si>
+  <si>
+    <t>ORG_CEN_IDENOLD</t>
+  </si>
+  <si>
+    <t>ORG_CEN_IDENNEW</t>
+  </si>
+  <si>
+    <t>ORG_CEN_STATUS</t>
   </si>
 </sst>
 </file>
@@ -2047,20 +2056,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C370"/>
+  <dimension ref="A1:F370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A352" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="3" width="50.1796875" customWidth="1"/>
+    <col min="2" max="3" width="50.140625" customWidth="1"/>
     <col min="4" max="11" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2070,8 +2079,17 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>569</v>
+      </c>
+      <c r="E1" t="s">
+        <v>570</v>
+      </c>
+      <c r="F1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>36001</v>
       </c>
@@ -2082,7 +2100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>36002</v>
       </c>
@@ -2093,7 +2111,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>36003</v>
       </c>
@@ -2104,7 +2122,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>36004</v>
       </c>
@@ -2115,7 +2133,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>36005</v>
       </c>
@@ -2126,7 +2144,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>36006</v>
       </c>
@@ -2137,7 +2155,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>36007</v>
       </c>
@@ -2148,7 +2166,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>36008</v>
       </c>
@@ -2159,7 +2177,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>36009</v>
       </c>
@@ -2170,7 +2188,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>36010</v>
       </c>
@@ -2181,7 +2199,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>36011</v>
       </c>
@@ -2192,7 +2210,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>36012</v>
       </c>
@@ -2203,7 +2221,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>36013</v>
       </c>
@@ -2214,7 +2232,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>36014</v>
       </c>
@@ -2225,7 +2243,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>36015</v>
       </c>
@@ -2233,7 +2251,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>36016</v>
       </c>
@@ -2244,7 +2262,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>36017</v>
       </c>
@@ -2255,7 +2273,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>36018</v>
       </c>
@@ -2266,7 +2284,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>36019</v>
       </c>
@@ -2277,7 +2295,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>36020</v>
       </c>
@@ -2288,7 +2306,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>36021</v>
       </c>
@@ -2299,7 +2317,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>36022</v>
       </c>
@@ -2310,7 +2328,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>36023</v>
       </c>
@@ -2321,7 +2339,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>36024</v>
       </c>
@@ -2332,7 +2350,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>36025</v>
       </c>
@@ -2343,7 +2361,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>36026</v>
       </c>
@@ -2354,7 +2372,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>36027</v>
       </c>
@@ -2365,7 +2383,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>36028</v>
       </c>
@@ -2376,7 +2394,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>36029</v>
       </c>
@@ -2387,7 +2405,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>36030</v>
       </c>
@@ -2398,7 +2416,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>36031</v>
       </c>
@@ -2409,7 +2427,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>36032</v>
       </c>
@@ -2420,7 +2438,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>36033</v>
       </c>
@@ -2431,7 +2449,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>36034</v>
       </c>
@@ -2442,7 +2460,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>36035</v>
       </c>
@@ -2453,7 +2471,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36036</v>
       </c>
@@ -2464,7 +2482,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36037</v>
       </c>
@@ -2475,7 +2493,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>36038</v>
       </c>
@@ -2486,7 +2504,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>36039</v>
       </c>
@@ -2497,7 +2515,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>36040</v>
       </c>
@@ -2508,7 +2526,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>36041</v>
       </c>
@@ -2519,7 +2537,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>36042</v>
       </c>
@@ -2530,7 +2548,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>36043</v>
       </c>
@@ -2541,7 +2559,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>36044</v>
       </c>
@@ -2552,7 +2570,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>36045</v>
       </c>
@@ -2563,7 +2581,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>36046</v>
       </c>
@@ -2574,7 +2592,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>36047</v>
       </c>
@@ -2585,7 +2603,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>36048</v>
       </c>
@@ -2596,7 +2614,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>36049</v>
       </c>
@@ -2607,7 +2625,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>36050</v>
       </c>
@@ -2618,7 +2636,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>36051</v>
       </c>
@@ -2629,7 +2647,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>36052</v>
       </c>
@@ -2640,7 +2658,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>36053</v>
       </c>
@@ -2651,7 +2669,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>36054</v>
       </c>
@@ -2659,7 +2677,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>36055</v>
       </c>
@@ -2670,7 +2688,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>36056</v>
       </c>
@@ -2681,7 +2699,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>36057</v>
       </c>
@@ -2692,7 +2710,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>36058</v>
       </c>
@@ -2703,7 +2721,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>36059</v>
       </c>
@@ -2714,7 +2732,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>36060</v>
       </c>
@@ -2722,7 +2740,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>36061</v>
       </c>
@@ -2733,7 +2751,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>36062</v>
       </c>
@@ -2744,7 +2762,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>36063</v>
       </c>
@@ -2755,7 +2773,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>36064</v>
       </c>
@@ -2766,7 +2784,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>36065</v>
       </c>
@@ -2777,7 +2795,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>36066</v>
       </c>
@@ -2788,7 +2806,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>36067</v>
       </c>
@@ -2799,7 +2817,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>36068</v>
       </c>
@@ -2810,7 +2828,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>36069</v>
       </c>
@@ -2821,7 +2839,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>36070</v>
       </c>
@@ -2832,7 +2850,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>36071</v>
       </c>
@@ -2843,7 +2861,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>36072</v>
       </c>
@@ -2854,7 +2872,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>36073</v>
       </c>
@@ -2865,7 +2883,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>36074</v>
       </c>
@@ -2876,7 +2894,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>36075</v>
       </c>
@@ -2887,7 +2905,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>36076</v>
       </c>
@@ -2898,7 +2916,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>36077</v>
       </c>
@@ -2909,7 +2927,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>36078</v>
       </c>
@@ -2920,7 +2938,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>36079</v>
       </c>
@@ -2931,7 +2949,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>36080</v>
       </c>
@@ -2942,7 +2960,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>36081</v>
       </c>
@@ -2953,7 +2971,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>36082</v>
       </c>
@@ -2961,7 +2979,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>36083</v>
       </c>
@@ -2972,7 +2990,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>36084</v>
       </c>
@@ -2983,7 +3001,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>36085</v>
       </c>
@@ -2994,7 +3012,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>36086</v>
       </c>
@@ -3005,7 +3023,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>36087</v>
       </c>
@@ -3016,7 +3034,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>36088</v>
       </c>
@@ -3027,7 +3045,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>36089</v>
       </c>
@@ -3038,7 +3056,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>36090</v>
       </c>
@@ -3049,7 +3067,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>36091</v>
       </c>
@@ -3060,7 +3078,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>36092</v>
       </c>
@@ -3071,7 +3089,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>36093</v>
       </c>
@@ -3082,7 +3100,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>36094</v>
       </c>
@@ -3093,7 +3111,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>36095</v>
       </c>
@@ -3104,7 +3122,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>36096</v>
       </c>
@@ -3115,7 +3133,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>36097</v>
       </c>
@@ -3126,7 +3144,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>36098</v>
       </c>
@@ -3137,7 +3155,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>36099</v>
       </c>
@@ -3148,7 +3166,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>36100</v>
       </c>
@@ -3159,7 +3177,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>36101</v>
       </c>
@@ -3170,7 +3188,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>36102</v>
       </c>
@@ -3181,7 +3199,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>36103</v>
       </c>
@@ -3192,7 +3210,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>36104</v>
       </c>
@@ -3203,7 +3221,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>36105</v>
       </c>
@@ -3214,7 +3232,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>36106</v>
       </c>
@@ -3225,7 +3243,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>36107</v>
       </c>
@@ -3236,7 +3254,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>36108</v>
       </c>
@@ -3247,7 +3265,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>36109</v>
       </c>
@@ -3258,7 +3276,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>36110</v>
       </c>
@@ -3269,7 +3287,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>36111</v>
       </c>
@@ -3280,7 +3298,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>36112</v>
       </c>
@@ -3291,7 +3309,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>36113</v>
       </c>
@@ -3302,7 +3320,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>36114</v>
       </c>
@@ -3313,7 +3331,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>36115</v>
       </c>
@@ -3324,7 +3342,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>36116</v>
       </c>
@@ -3335,7 +3353,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>36117</v>
       </c>
@@ -3346,7 +3364,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>36118</v>
       </c>
@@ -3357,7 +3375,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>36119</v>
       </c>
@@ -3368,7 +3386,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>36120</v>
       </c>
@@ -3379,7 +3397,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>36121</v>
       </c>
@@ -3390,7 +3408,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>36122</v>
       </c>
@@ -3401,7 +3419,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>36123</v>
       </c>
@@ -3412,7 +3430,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>36124</v>
       </c>
@@ -3423,7 +3441,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>36125</v>
       </c>
@@ -3434,7 +3452,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>36126</v>
       </c>
@@ -3445,7 +3463,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>36127</v>
       </c>
@@ -3456,7 +3474,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>36128</v>
       </c>
@@ -3467,7 +3485,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>36129</v>
       </c>
@@ -3478,7 +3496,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>36130</v>
       </c>
@@ -3489,7 +3507,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>36131</v>
       </c>
@@ -3500,7 +3518,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>36132</v>
       </c>
@@ -3511,7 +3529,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>36133</v>
       </c>
@@ -3522,7 +3540,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>36134</v>
       </c>
@@ -3533,7 +3551,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>36135</v>
       </c>
@@ -3544,7 +3562,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>36136</v>
       </c>
@@ -3555,7 +3573,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>36137</v>
       </c>
@@ -3566,7 +3584,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>36138</v>
       </c>
@@ -3577,7 +3595,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>36139</v>
       </c>
@@ -3588,7 +3606,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>36140</v>
       </c>
@@ -3599,7 +3617,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>36141</v>
       </c>
@@ -3610,7 +3628,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>36142</v>
       </c>
@@ -3621,7 +3639,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>36143</v>
       </c>
@@ -3632,7 +3650,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>36144</v>
       </c>
@@ -3643,7 +3661,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>36145</v>
       </c>
@@ -3654,7 +3672,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>36146</v>
       </c>
@@ -3665,7 +3683,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>36147</v>
       </c>
@@ -3676,7 +3694,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>36148</v>
       </c>
@@ -3687,7 +3705,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>36149</v>
       </c>
@@ -3698,7 +3716,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>36150</v>
       </c>
@@ -3709,7 +3727,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>36151</v>
       </c>
@@ -3720,7 +3738,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>36152</v>
       </c>
@@ -3731,7 +3749,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>36153</v>
       </c>
@@ -3742,7 +3760,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>36154</v>
       </c>
@@ -3753,7 +3771,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>36155</v>
       </c>
@@ -3764,7 +3782,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>36156</v>
       </c>
@@ -3775,7 +3793,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>36157</v>
       </c>
@@ -3786,7 +3804,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>36158</v>
       </c>
@@ -3797,7 +3815,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>36159</v>
       </c>
@@ -3808,7 +3826,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>36160</v>
       </c>
@@ -3819,7 +3837,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>36161</v>
       </c>
@@ -3830,7 +3848,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>36162</v>
       </c>
@@ -3841,7 +3859,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>36163</v>
       </c>
@@ -3852,7 +3870,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>36164</v>
       </c>
@@ -3863,7 +3881,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>36165</v>
       </c>
@@ -3874,7 +3892,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>36166</v>
       </c>
@@ -3885,7 +3903,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>36167</v>
       </c>
@@ -3896,7 +3914,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>36168</v>
       </c>
@@ -3907,7 +3925,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>36169</v>
       </c>
@@ -3918,7 +3936,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>36170</v>
       </c>
@@ -3929,7 +3947,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>36171</v>
       </c>
@@ -3940,7 +3958,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>36172</v>
       </c>
@@ -3951,7 +3969,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>36173</v>
       </c>
@@ -3962,7 +3980,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>36174</v>
       </c>
@@ -3973,7 +3991,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>36175</v>
       </c>
@@ -3984,7 +4002,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>36176</v>
       </c>
@@ -3995,7 +4013,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>36177</v>
       </c>
@@ -4006,7 +4024,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>36178</v>
       </c>
@@ -4017,7 +4035,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>36179</v>
       </c>
@@ -4028,7 +4046,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>36180</v>
       </c>
@@ -4039,7 +4057,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>36181</v>
       </c>
@@ -4050,7 +4068,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>36182</v>
       </c>
@@ -4061,7 +4079,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>36183</v>
       </c>
@@ -4072,7 +4090,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>36184</v>
       </c>
@@ -4083,7 +4101,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>36185</v>
       </c>
@@ -4094,7 +4112,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>36186</v>
       </c>
@@ -4105,7 +4123,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>36187</v>
       </c>
@@ -4116,7 +4134,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>36188</v>
       </c>
@@ -4127,7 +4145,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>36189</v>
       </c>
@@ -4138,7 +4156,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>36190</v>
       </c>
@@ -4149,7 +4167,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>36191</v>
       </c>
@@ -4160,7 +4178,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>36192</v>
       </c>
@@ -4171,7 +4189,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>36193</v>
       </c>
@@ -4182,7 +4200,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>36194</v>
       </c>
@@ -4193,7 +4211,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>36195</v>
       </c>
@@ -4204,7 +4222,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>36196</v>
       </c>
@@ -4215,7 +4233,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>36197</v>
       </c>
@@ -4226,7 +4244,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>36198</v>
       </c>
@@ -4237,7 +4255,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>36199</v>
       </c>
@@ -4248,7 +4266,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>36200</v>
       </c>
@@ -4259,7 +4277,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>36201</v>
       </c>
@@ -4270,7 +4288,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>36202</v>
       </c>
@@ -4281,7 +4299,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>36203</v>
       </c>
@@ -4292,7 +4310,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>36204</v>
       </c>
@@ -4303,7 +4321,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>36205</v>
       </c>
@@ -4314,7 +4332,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>36206</v>
       </c>
@@ -4325,7 +4343,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>36207</v>
       </c>
@@ -4336,7 +4354,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>36208</v>
       </c>
@@ -4347,7 +4365,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>36209</v>
       </c>
@@ -4358,7 +4376,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>36210</v>
       </c>
@@ -4369,7 +4387,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>36211</v>
       </c>
@@ -4380,7 +4398,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>36212</v>
       </c>
@@ -4391,7 +4409,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>36213</v>
       </c>
@@ -4402,7 +4420,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>36214</v>
       </c>
@@ -4413,7 +4431,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>36215</v>
       </c>
@@ -4424,7 +4442,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>36216</v>
       </c>
@@ -4435,7 +4453,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>36217</v>
       </c>
@@ -4446,7 +4464,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>36218</v>
       </c>
@@ -4454,7 +4472,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>36219</v>
       </c>
@@ -4465,7 +4483,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>36220</v>
       </c>
@@ -4476,7 +4494,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>36221</v>
       </c>
@@ -4487,7 +4505,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>36222</v>
       </c>
@@ -4498,7 +4516,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>36223</v>
       </c>
@@ -4509,7 +4527,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>36224</v>
       </c>
@@ -4520,7 +4538,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>36225</v>
       </c>
@@ -4531,7 +4549,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>36226</v>
       </c>
@@ -4542,7 +4560,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>36227</v>
       </c>
@@ -4553,7 +4571,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>36228</v>
       </c>
@@ -4564,7 +4582,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>36229</v>
       </c>
@@ -4575,7 +4593,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>36230</v>
       </c>
@@ -4586,7 +4604,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>36231</v>
       </c>
@@ -4597,7 +4615,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>36232</v>
       </c>
@@ -4608,7 +4626,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>36233</v>
       </c>
@@ -4619,7 +4637,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>36234</v>
       </c>
@@ -4630,7 +4648,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>36235</v>
       </c>
@@ -4641,7 +4659,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>36236</v>
       </c>
@@ -4652,7 +4670,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>36237</v>
       </c>
@@ -4663,7 +4681,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>36238</v>
       </c>
@@ -4674,7 +4692,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>36239</v>
       </c>
@@ -4685,7 +4703,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>36240</v>
       </c>
@@ -4696,7 +4714,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>36241</v>
       </c>
@@ -4707,7 +4725,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>36242</v>
       </c>
@@ -4718,7 +4736,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>36243</v>
       </c>
@@ -4729,7 +4747,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>36244</v>
       </c>
@@ -4740,7 +4758,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>36245</v>
       </c>
@@ -4751,7 +4769,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>36246</v>
       </c>
@@ -4762,7 +4780,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>36247</v>
       </c>
@@ -4773,7 +4791,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>36248</v>
       </c>
@@ -4784,7 +4802,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>36249</v>
       </c>
@@ -4795,7 +4813,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>36250</v>
       </c>
@@ -4806,7 +4824,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>36251</v>
       </c>
@@ -4817,7 +4835,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>36252</v>
       </c>
@@ -4828,7 +4846,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>36253</v>
       </c>
@@ -4839,7 +4857,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>36254</v>
       </c>
@@ -4850,7 +4868,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>36255</v>
       </c>
@@ -4861,7 +4879,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>36256</v>
       </c>
@@ -4872,7 +4890,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>36257</v>
       </c>
@@ -4883,7 +4901,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>36258</v>
       </c>
@@ -4894,7 +4912,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>36259</v>
       </c>
@@ -4905,7 +4923,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>36260</v>
       </c>
@@ -4916,7 +4934,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>36261</v>
       </c>
@@ -4927,7 +4945,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>36262</v>
       </c>
@@ -4938,7 +4956,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>36263</v>
       </c>
@@ -4949,7 +4967,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>36264</v>
       </c>
@@ -4960,7 +4978,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>36265</v>
       </c>
@@ -4971,7 +4989,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>36266</v>
       </c>
@@ -4982,7 +5000,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>36267</v>
       </c>
@@ -4993,7 +5011,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>36268</v>
       </c>
@@ -5004,7 +5022,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>36269</v>
       </c>
@@ -5015,7 +5033,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>36270</v>
       </c>
@@ -5026,7 +5044,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>36271</v>
       </c>
@@ -5037,7 +5055,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>36272</v>
       </c>
@@ -5048,7 +5066,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>36273</v>
       </c>
@@ -5059,7 +5077,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>36274</v>
       </c>
@@ -5070,7 +5088,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>36275</v>
       </c>
@@ -5081,7 +5099,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>36276</v>
       </c>
@@ -5092,7 +5110,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>36277</v>
       </c>
@@ -5103,7 +5121,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>36278</v>
       </c>
@@ -5114,7 +5132,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>36279</v>
       </c>
@@ -5125,7 +5143,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>36280</v>
       </c>
@@ -5136,7 +5154,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>36281</v>
       </c>
@@ -5147,7 +5165,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>36282</v>
       </c>
@@ -5158,7 +5176,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>36283</v>
       </c>
@@ -5169,7 +5187,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>36284</v>
       </c>
@@ -5180,7 +5198,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>36285</v>
       </c>
@@ -5191,7 +5209,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>36286</v>
       </c>
@@ -5202,7 +5220,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>36287</v>
       </c>
@@ -5213,7 +5231,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>36288</v>
       </c>
@@ -5224,7 +5242,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>36289</v>
       </c>
@@ -5235,7 +5253,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>36290</v>
       </c>
@@ -5246,7 +5264,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>36291</v>
       </c>
@@ -5257,7 +5275,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>36292</v>
       </c>
@@ -5268,7 +5286,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>36293</v>
       </c>
@@ -5279,7 +5297,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>36294</v>
       </c>
@@ -5290,7 +5308,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>36295</v>
       </c>
@@ -5301,7 +5319,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>36296</v>
       </c>
@@ -5312,7 +5330,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>36297</v>
       </c>
@@ -5323,7 +5341,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>36298</v>
       </c>
@@ -5334,7 +5352,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>36299</v>
       </c>
@@ -5345,7 +5363,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>36300</v>
       </c>
@@ -5356,7 +5374,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>36301</v>
       </c>
@@ -5367,7 +5385,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>36302</v>
       </c>
@@ -5378,7 +5396,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>36303</v>
       </c>
@@ -5389,7 +5407,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>36304</v>
       </c>
@@ -5400,7 +5418,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>36305</v>
       </c>
@@ -5411,7 +5429,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>36306</v>
       </c>
@@ -5422,7 +5440,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>36307</v>
       </c>
@@ -5433,7 +5451,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>36308</v>
       </c>
@@ -5444,7 +5462,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>36309</v>
       </c>
@@ -5455,7 +5473,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>36310</v>
       </c>
@@ -5466,7 +5484,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>36311</v>
       </c>
@@ -5477,7 +5495,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>36312</v>
       </c>
@@ -5488,7 +5506,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>36313</v>
       </c>
@@ -5499,7 +5517,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>36314</v>
       </c>
@@ -5510,7 +5528,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>36315</v>
       </c>
@@ -5521,7 +5539,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>36316</v>
       </c>
@@ -5532,7 +5550,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>36317</v>
       </c>
@@ -5543,7 +5561,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>36318</v>
       </c>
@@ -5554,7 +5572,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>36319</v>
       </c>
@@ -5565,7 +5583,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>36320</v>
       </c>
@@ -5576,7 +5594,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>36321</v>
       </c>
@@ -5587,7 +5605,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>36322</v>
       </c>
@@ -5598,7 +5616,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>36323</v>
       </c>
@@ -5609,7 +5627,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>36324</v>
       </c>
@@ -5620,7 +5638,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>36325</v>
       </c>
@@ -5631,7 +5649,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>36326</v>
       </c>
@@ -5642,7 +5660,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>36327</v>
       </c>
@@ -5653,7 +5671,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>36328</v>
       </c>
@@ -5664,7 +5682,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>36329</v>
       </c>
@@ -5675,7 +5693,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>36330</v>
       </c>
@@ -5686,7 +5704,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>36331</v>
       </c>
@@ -5697,7 +5715,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>36332</v>
       </c>
@@ -5708,7 +5726,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>36333</v>
       </c>
@@ -5719,7 +5737,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>36334</v>
       </c>
@@ -5730,7 +5748,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>36335</v>
       </c>
@@ -5741,7 +5759,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>36336</v>
       </c>
@@ -5752,7 +5770,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>36337</v>
       </c>
@@ -5763,7 +5781,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>36338</v>
       </c>
@@ -5774,7 +5792,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>36339</v>
       </c>
@@ -5785,7 +5803,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>36340</v>
       </c>
@@ -5796,7 +5814,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>36341</v>
       </c>
@@ -5807,7 +5825,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>36342</v>
       </c>
@@ -5818,7 +5836,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>36343</v>
       </c>
@@ -5829,7 +5847,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>36344</v>
       </c>
@@ -5840,7 +5858,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>36345</v>
       </c>
@@ -5851,7 +5869,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>36346</v>
       </c>
@@ -5862,7 +5880,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>36347</v>
       </c>
@@ -5873,7 +5891,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>36348</v>
       </c>
@@ -5884,7 +5902,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>36349</v>
       </c>
@@ -5895,7 +5913,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>36350</v>
       </c>
@@ -5906,7 +5924,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>36351</v>
       </c>
@@ -5917,7 +5935,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>36352</v>
       </c>
@@ -5928,7 +5946,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>36353</v>
       </c>
@@ -5939,7 +5957,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>36354</v>
       </c>
@@ -5950,7 +5968,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>36355</v>
       </c>
@@ -5961,7 +5979,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>36356</v>
       </c>
@@ -5972,7 +5990,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>36357</v>
       </c>
@@ -5983,7 +6001,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>36358</v>
       </c>
@@ -5994,7 +6012,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>36359</v>
       </c>
@@ -6005,7 +6023,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>36360</v>
       </c>
@@ -6016,7 +6034,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>36361</v>
       </c>
@@ -6027,7 +6045,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>36362</v>
       </c>
@@ -6038,7 +6056,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>36363</v>
       </c>
@@ -6049,7 +6067,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>36364</v>
       </c>
@@ -6060,7 +6078,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>36365</v>
       </c>
@@ -6071,7 +6089,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>36366</v>
       </c>
@@ -6082,7 +6100,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>36367</v>
       </c>
@@ -6093,7 +6111,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>36368</v>
       </c>
@@ -6104,7 +6122,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>36369</v>
       </c>
